--- a/defineFiles/广告配置阶段导入-bak.xlsx
+++ b/defineFiles/广告配置阶段导入-bak.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B48EB2E-7F16-5648-AD2D-790829A0ED7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B876AC2-D176-8142-945C-7E26231EB1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
     <sheet name="1" sheetId="1" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="287">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -808,6 +809,138 @@
   </si>
   <si>
     <t>com.wordgame.puzzle.restaurant.story</t>
+  </si>
+  <si>
+    <t>Classic Solitaire</t>
+  </si>
+  <si>
+    <t>Daily Challenge</t>
+  </si>
+  <si>
+    <t>FreeCell</t>
+  </si>
+  <si>
+    <t>FreeCell2</t>
+  </si>
+  <si>
+    <t>FreeCell_IOS</t>
+  </si>
+  <si>
+    <t>Solitaire Collection</t>
+  </si>
+  <si>
+    <t>Solitaire Collection_IOS</t>
+  </si>
+  <si>
+    <t>Solitaire Flat</t>
+  </si>
+  <si>
+    <t>Solitaire Lite</t>
+  </si>
+  <si>
+    <t>Solitaire1</t>
+  </si>
+  <si>
+    <t>Solitaire2</t>
+  </si>
+  <si>
+    <t>Solitaire_IOS</t>
+  </si>
+  <si>
+    <t>Spider Solitaire_IOS</t>
+  </si>
+  <si>
+    <t>Spider2</t>
+  </si>
+  <si>
+    <t>Super Challenges</t>
+  </si>
+  <si>
+    <t>Tripeaks Solitaire</t>
+  </si>
+  <si>
+    <t>com.queensgame.solitaire</t>
+  </si>
+  <si>
+    <t>com.queensgame.solitaire.dailyChallenge</t>
+  </si>
+  <si>
+    <t>com.queensgame.freecell</t>
+  </si>
+  <si>
+    <t>com.hapogames.FreeCell</t>
+  </si>
+  <si>
+    <t>com.queensgame.collection</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.flat</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.lite</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.basic1</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.basic2</t>
+  </si>
+  <si>
+    <t>com.queensgame.spider</t>
+  </si>
+  <si>
+    <t>com.queensgame.spider2</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.full</t>
+  </si>
+  <si>
+    <t>com.queensgame.tripeaks</t>
+  </si>
+  <si>
+    <t>老纸牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solitaire-Fish Go-IOS</t>
+  </si>
+  <si>
+    <t>com.cardgames.solitaire.patience.fish.go</t>
+  </si>
+  <si>
+    <t>TripeaksAD</t>
+  </si>
+  <si>
+    <t>Solitaire Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream Farm Story</t>
+  </si>
+  <si>
+    <t>Solitaire Tripeaks Farm</t>
+  </si>
+  <si>
+    <t>Solitaire-Dream Farm</t>
+  </si>
+  <si>
+    <t>Solitaire-Dream Farm-IOS</t>
+  </si>
+  <si>
+    <t>com.solitaire.tripeaks.free.card.game.dream.farm.story</t>
+  </si>
+  <si>
+    <t>com.solitaire.tripeaks.free.card.game.dream.farm.fun</t>
+  </si>
+  <si>
+    <t>com.solitaire.tripeaks.free.card.games.dream.farm.animal</t>
+  </si>
+  <si>
+    <t>SolitaireFarmAD</t>
+  </si>
+  <si>
+    <t>Solitaire Farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -871,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +1015,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1199,7 +1333,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -1311,7 +1445,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="23"/>
@@ -3540,9 +3674,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B6186-85B7-6442-8A71-EE936D4A3A0E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3553,6 +3687,99 @@
     <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB8FC9A-04A6-7C47-9990-4195A36ABBA6}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
@@ -3589,36 +3816,359 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/defineFiles/广告配置阶段导入-bak.xlsx
+++ b/defineFiles/广告配置阶段导入-bak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B876AC2-D176-8142-945C-7E26231EB1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C79D93-C28B-D846-8392-CAD098DA2EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="317">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,19 +916,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dream Farm Story</t>
-  </si>
-  <si>
     <t>Solitaire Tripeaks Farm</t>
   </si>
   <si>
     <t>Solitaire-Dream Farm</t>
-  </si>
-  <si>
-    <t>Solitaire-Dream Farm-IOS</t>
-  </si>
-  <si>
-    <t>com.solitaire.tripeaks.free.card.game.dream.farm.story</t>
   </si>
   <si>
     <t>com.solitaire.tripeaks.free.card.game.dream.farm.fun</t>
@@ -941,6 +933,109 @@
   <si>
     <t>Solitaire Farm</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection Fishdom</t>
+  </si>
+  <si>
+    <t>FreeCell Fishdom</t>
+  </si>
+  <si>
+    <t>Pyramid Fishdom</t>
+  </si>
+  <si>
+    <t>Solitaire Fishdom</t>
+  </si>
+  <si>
+    <t>Spider Fishdom</t>
+  </si>
+  <si>
+    <t>Tripeaks Fishdom</t>
+  </si>
+  <si>
+    <t>Solitaire Fishdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.pyramid.fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.spider.fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.tripeaks.fishdom</t>
+  </si>
+  <si>
+    <t>com.cardgame.solitaire.fishdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.freecell.fishdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cardgame.collection.fishdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Cross_DE</t>
+  </si>
+  <si>
+    <t>Word Cross_DA</t>
+  </si>
+  <si>
+    <t>Word Cross_FR-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross_JA</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.board.ja</t>
+  </si>
+  <si>
+    <t>Word Cross_JA-IOS</t>
+  </si>
+  <si>
+    <t>Word Cross_NL-IOS</t>
+  </si>
+  <si>
+    <t>Word Flat_IOS</t>
+  </si>
+  <si>
+    <t>Word Swipe</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush</t>
+  </si>
+  <si>
+    <t>Word Swipe Puzzle-IOS</t>
+  </si>
+  <si>
+    <t>Word Swipe_CN-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.zh</t>
+  </si>
+  <si>
+    <t>Word Swipe_DE</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.de</t>
+  </si>
+  <si>
+    <t>Word Swipe_DE-IOS</t>
+  </si>
+  <si>
+    <t>Word Swipe Pic</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.pic.en</t>
+  </si>
+  <si>
+    <t>Word Swipe Pic-IOS</t>
+  </si>
+  <si>
+    <t>com.wordgame.puzzle.block.crush.pic</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1428,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -1443,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795AE866-1385-4E4B-A976-49DEA77E765F}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -3766,9 +3861,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB8FC9A-04A6-7C47-9990-4195A36ABBA6}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3780,6 +3875,389 @@
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5F52D-AC32-384B-9BDC-CE7567ECB7A3}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
@@ -3816,16 +4294,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -3833,16 +4311,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -3850,16 +4328,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -3867,16 +4345,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -3884,16 +4362,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -3901,274 +4379,291 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>211</v>
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>264</v>
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>265</v>
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>80</v>
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>266</v>
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>80</v>
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>268</v>
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>211</v>
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>260</v>
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>301</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>211</v>
+      <c r="A15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>269</v>
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>301</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>80</v>
+      <c r="A16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>270</v>
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>271</v>
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
-        <v>273</v>
+      <c r="C18" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C19" t="s">
-        <v>277</v>
+      <c r="C19" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>286</v>
+        <v>211</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
-        <v>279</v>
+      <c r="A21" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s">
-        <v>286</v>
+      <c r="C21" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="E21" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>286</v>
+        <v>211</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="E22" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" t="s">
-        <v>285</v>
+      <c r="C24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/defineFiles/广告配置阶段导入-bak.xlsx
+++ b/defineFiles/广告配置阶段导入-bak.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talefun-my.sharepoint.cn/personal/yangfuchao_talefun_partner_onmschina_cn/Documents/工作安排/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C79D93-C28B-D846-8392-CAD098DA2EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{B00DA8FF-59E9-C248-9159-D9975A2B064E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CCE21BE-D1E8-7D47-A092-EAD208158FC9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
+    <workbookView xWindow="46600" yWindow="460" windowWidth="26720" windowHeight="16760" activeTab="6" xr2:uid="{3EEC5038-2A50-8F46-B5FC-1591208DBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
     <sheet name="5" sheetId="6" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1'!$A$1:$E$5</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="322">
   <si>
     <t>app_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,6 +1037,21 @@
   </si>
   <si>
     <t>com.wordgame.puzzle.block.crush.pic</t>
+  </si>
+  <si>
+    <t>Solitaire Fish-IOS</t>
+  </si>
+  <si>
+    <t>Solitaire Fish</t>
+  </si>
+  <si>
+    <t>com.solitaire.klondike.patience.ocean.aquarium.fun</t>
+  </si>
+  <si>
+    <t>com.solitaire.klondike.patience.ocean.aquarium</t>
+  </si>
+  <si>
+    <t>SolitairefishAD</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1444,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -1538,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795AE866-1385-4E4B-A976-49DEA77E765F}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2301,7 +2317,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A80" sqref="A80:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -3769,10 +3785,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324B6186-85B7-6442-8A71-EE936D4A3A0E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -3803,25 +3819,25 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
@@ -3830,26 +3846,9 @@
         <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3861,10 +3860,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB8FC9A-04A6-7C47-9990-4195A36ABBA6}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -3896,25 +3895,25 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>273</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
@@ -3923,7 +3922,7 @@
         <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -3931,7 +3930,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>80</v>
@@ -3940,7 +3939,7 @@
         <v>273</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -3948,7 +3947,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>80</v>
@@ -3957,7 +3956,7 @@
         <v>273</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -3965,16 +3964,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>273</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -3982,16 +3981,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>273</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -3999,10 +3998,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
         <v>273</v>
@@ -4016,16 +4015,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>273</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
@@ -4033,7 +4032,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>80</v>
@@ -4042,7 +4041,7 @@
         <v>273</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
@@ -4050,7 +4049,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>80</v>
@@ -4059,7 +4058,7 @@
         <v>273</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
         <v>83</v>
@@ -4067,7 +4066,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>80</v>
@@ -4076,7 +4075,7 @@
         <v>273</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
@@ -4084,16 +4083,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>273</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
@@ -4101,7 +4100,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>211</v>
@@ -4110,7 +4109,7 @@
         <v>273</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
         <v>83</v>
@@ -4118,16 +4117,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>273</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
@@ -4135,7 +4134,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>80</v>
@@ -4144,7 +4143,7 @@
         <v>273</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
@@ -4152,7 +4151,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>80</v>
@@ -4161,7 +4160,7 @@
         <v>273</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
         <v>83</v>
@@ -4169,41 +4168,41 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>278</v>
+      <c r="A20" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>80</v>
@@ -4212,26 +4211,9 @@
         <v>283</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E21" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4243,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5F52D-AC32-384B-9BDC-CE7567ECB7A3}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E24"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -4258,6 +4240,423 @@
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB4F10C-38D3-8E4E-BF7E-7EB110955AED}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
@@ -4276,394 +4675,37 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="A2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
-        <v>290</v>
+      <c r="C3" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" t="s">
-        <v>301</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
